--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/31_Erzurum_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/31_Erzurum_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E2AEDE-C90A-4992-B93F-99ACDC6421B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFA17A1-B930-4BFD-96D1-37E89AA7C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AECA605C-9CF5-4F1E-9999-85E64C0CCD4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB5A2BC1-CE02-4218-9E40-4483F6281262}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{D830C831-9A0C-476B-852F-5D85CA5E4C2C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{726A7DE9-127F-4E27-B877-568C0088C600}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{222389AA-05C8-401E-9F70-4A104CA44035}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{AEAFE206-D39A-431E-8391-31A2973512AE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{239CB6F3-C19A-4B34-A6F9-39CB820F03D2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{876F749E-5092-4684-9006-52B67C1B55AF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D8164625-54E4-41F0-951F-455F41EFB734}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{2D3ECC7C-5027-4ED0-93FE-1A532AAB1D8D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB51B22-A139-481A-9E89-5C83EB0FB47F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF084F3D-9A0C-423D-AEDE-E9C668745F0E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2463,18 +2463,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{19F37767-288E-4409-8AE5-E12B5499B0F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16A3C905-3F94-44E7-96A8-1BDCE2AA251B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1FF472D1-3834-4020-ABDB-B31B62F64ED9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{54481308-EA3D-4542-AA36-EC4E5F97F8EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D00DC5C8-A340-40EF-8C66-AAC2225D1088}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{775592F1-1844-41A3-AF29-687D4279F5B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6082A5D5-C9A5-4FED-B8D8-7E165841B887}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C35E1412-F807-453E-AA7B-F631AB3653C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4761F499-CB9A-46E4-B8C6-88924BEADD44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{864662EA-9015-4EE4-AB24-26908F770972}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5A84D055-C3F2-4C54-97CE-9EE326F07A36}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7C4774C0-E691-43DA-A30F-3993FD66256C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A00253D7-CDDC-48A7-AB35-0883FA65025A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{34C461BD-FFBF-49A6-8EFE-AFBF1DE4E7D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D3FD445F-FA2D-427D-8802-BBE989D23E56}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FDC3E498-991E-4A9F-A65D-F0DAE1B16FF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F82BCA54-2D39-4DBE-A6DD-47957AB1FE95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E6305F88-6181-4001-B4CB-EEF9F3E212FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{169DFE93-5C09-42A8-BC24-D7F855572D66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BACD7B53-526A-466A-9ACB-172801D55D39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8540D82C-F7C5-46A6-9EAD-9D545773EED5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC6C33B3-8F02-4B6B-AAB7-35CC3B61AB29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{309674DC-BF8A-45FA-938E-015BCE321675}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DDC1B347-4B97-4C41-B678-FBEB0604A60D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3078E2-2A3B-4E76-B754-95C7A794A63C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C63CF6-4BD0-460C-BE22-EB3B6D73224B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3676,18 +3676,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5E5CA265-EA15-43C2-B149-ADFC24E1741F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{048E8969-230D-4B7C-9B2C-7E6AC93F9341}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8894CE7A-0285-4DE6-ABDA-9A5050B4C500}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6636DD23-6A18-4BA0-A898-70DEEA5A3AD0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B1E1E893-CA1B-4BFE-BF30-90C34D907F40}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B3782737-B190-4772-A3BC-AFD69B6C05E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F46A2A5E-BE3B-4400-ADDE-8A5803CCD8BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EF464AEF-D2B4-4FDE-AB1F-A9AC523F3837}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5651BEA7-ECA2-4A71-A93E-0493F70E996B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AC2FBC48-2F30-4083-A319-50A8FF87FE63}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{730F70FC-C62C-45C0-AED6-C8B7E5BD28AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{683A5705-D670-47D6-BA95-067C1E318B20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A32A5A25-81EE-4811-A18C-9071A4BB0F32}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CEBBB74E-BE37-4997-AC70-342700B17C1F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C387D638-92A3-47C7-B896-56BB32879EEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D9BB78E0-C0C1-4E9B-9990-499917F1BE22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7C448D39-A8E3-4BDE-9205-718BE8182343}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7F0C1DE0-0E5E-487C-A7FA-AFB0A8D8CC5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5CAEF71-1A94-4BB3-954D-7000A2A38806}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFEB77B5-2DEE-4EB9-A18C-9E42D44BB884}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE23D545-BE70-4281-9E9B-2CCC3039D470}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1BFCA76A-6FB1-453D-83B6-A5590A39033D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2239BF79-2602-4246-88F7-CB0994AF9DCA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4F0BA7C2-636C-4239-9F1E-3CE2C5C389D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3700,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E053BA-8ABE-4E73-88BE-19F18ADF9E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA649FE-FEEB-465D-A96F-5784C952AE2B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4873,18 +4873,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3D71E17B-7D56-4A62-A1AC-35107282C4AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{01C8088E-E8A6-4FEB-9A51-CF5FE153541C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F8BE999-97A9-40C4-99B4-90F46252A9C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D06FC9C-7C6C-46E9-9A1E-998B3E4FB194}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9AA1DB06-15CB-4806-992E-AA25C6A63653}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F3E7721C-1B62-4FC6-8AA8-FF718E9DADE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1F6D371B-9CBC-477A-B8E4-FA38A88585E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D01FBB9-1E45-4DDC-8759-F2D46A89487D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F6AF26D9-BDFA-400F-A008-58128C994B6C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4D2654DB-B86C-4464-AE19-3B7F64FF6BA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{68B00D94-4ED6-44C1-8309-979023E1113B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DC9A4703-F3E6-446B-8EB4-5FD856B29EF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0DF22081-83CE-495C-AAF0-545F5A29D6EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC642497-708E-4088-B869-AE2775473D7C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AEE9ECED-828D-4D72-BB0C-CAEFF6B73693}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D3F627DA-F646-42D2-9AB1-4475B83017CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{79121A85-F250-4D99-90DB-A945DE507F02}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2F480333-9FAA-45B7-B9D2-6F06CBD4815B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7BBC380E-122E-41DC-9A79-284EC1239EF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CAAFC7F6-DF83-4040-A209-BB91A725A135}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{91215418-A28E-4E49-BBE4-9FEB450B0666}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C3469B69-986D-45AD-9138-2A5009769EE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F15DF5C8-5B0B-4A97-AD48-C19EED3B92B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB38DEDC-66FF-4ACF-A43D-05FFA2A4C18D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4897,7 +4897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A3421C-E7D7-418A-9742-0391F669FE50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17AD4C7-9F7D-44E4-8FC2-4949EC7568D0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6062,18 +6062,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{542B2705-00AE-44E5-8696-A32C92791EC7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD82C539-F1B5-45B4-A4D7-4CD37949048F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BEFCC8C5-09B3-42BA-8FD7-D22135DE51F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{88506108-B54B-47BE-A5C7-22508E012427}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4EA7D684-7D19-4A6E-82EA-58694B4B14D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1DBB3541-A0B9-4BE5-B415-C871FF16FAB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{50148A3F-C860-4344-BD94-34BF91754413}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D9A4E7D-68BC-474E-8C9E-5A124BB572F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C43BB2AE-B99E-497B-9A4C-C79CDD25AE1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{74289B04-6A4E-4E82-A892-DCFF01CC9DDA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CAA61A52-2C25-4633-8AB4-36E4A7F64CA4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7E748A7B-6733-4600-B046-309A952DDE4B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{97BBCEC2-978C-477D-8266-ED96D86C1966}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1036F9C0-F769-4F61-BEED-FA99B33F78B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48D64CAD-1A08-4A78-BE96-14F5ED3E93A4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6B99F973-8F44-4D3A-9963-8161447D15FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DFC3DAE5-7C6E-44A9-BA35-8E046775635E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ECC5569F-F2A1-4530-9C7C-382123867A03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6006945A-A132-4CB6-8DFB-632AAEC544BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BF993D3E-D121-46A6-AED5-B2ED16F110F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8FFF9B51-EC89-4811-8EA3-879FB8BC36B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5809DD9D-CF64-49AD-B184-2FBA0AB5EA67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C74F0E2D-3DC9-4814-81CB-D651AE27C9E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{22C69A49-1CFA-42DB-A85C-315133137533}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6086,7 +6086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D02BB8-B377-4F6C-83E7-FE02B6657088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3F4F1B-2197-44FC-A687-6BF78B5FD286}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7297,18 +7297,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{29D4F727-0AB4-43D0-BAFD-3411ED785D9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09D75E4F-FC9A-4308-902F-274C7827B8AB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{50E4DEAD-5215-4F5A-9E60-B0F68F00E328}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{854B07AC-A6B8-47A8-B9C3-619D38818972}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DC9E732F-8054-49C3-AB45-E3B926C01D7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3DF150BC-FF2E-470E-AF69-BC8C54F26576}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DB055CB8-1CEB-4487-8DE3-C33D98438D90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{93BC9657-D5BB-4D57-BAA0-7158FF8FD56F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{899CD2F7-D421-40E7-9339-B54E9C17958F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AFEE89C1-A491-4E3A-8D58-BD652B13FF8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4AD5D3F5-63EA-4CA8-8ADC-162A4C5E4BB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2CC75072-03E3-4783-AC2A-C3AA4C74B048}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F404DC1D-F44B-49FE-BB8D-DED3786731B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{998284F4-B14B-4497-B33E-4CBAC62919DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4A6CE496-F208-4582-8076-271FB98DA16F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{69A4F3A4-5429-45B9-8AFF-E3CAF47B1D67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7A43691E-76BF-43CB-80F6-FC689B485518}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B3451E94-431E-4EDE-B2CE-DFA9FDB1ECC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9FD14684-0A17-47F1-BC98-D689276D300C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0DAC9AE4-416C-4173-9BEE-9F0ABF500A33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AD174B24-2C7D-4CA4-BADF-4CAEFABEFDA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E2FF8DB-3035-4F80-B5E4-E40E974BA18F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FCF456CA-B30D-413F-B206-F4E25C3CEAB8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E956A181-A97B-4973-B5F1-1ADE64FC54D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7321,7 +7321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5172A0-DA33-4CC0-BDCF-4DA39B72F4E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16435E4-D3AD-4ECF-824F-659DCDAD7023}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8538,18 +8538,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2EB33C24-AAF1-47B5-9D11-87F63F416C6A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{647C5D2A-0093-4683-A2B5-23657236EE8B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F6A5BDA8-476F-49FD-BC23-09487C7EB31B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2A70DECD-1C74-4E5F-A2B1-5A3E1D262240}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{32DA14A1-5105-43CE-B80F-ADB4A739A88C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{77A99F4B-E1A3-4CF1-B7EB-315977AD5F00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5F2A99C6-3CFF-4F95-9485-A73681B98182}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{75352BE4-30FF-43CE-8BE1-70D240AEC044}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A57CF615-07D8-43BE-B4CC-8090CB635216}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10F136D0-3B6E-4E41-8E26-E8ECE101FB9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F54C1F08-AE74-4FED-9A98-081C5D53FA90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{29937228-ECB3-4F63-994A-CAE120D15DED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6471EE65-CA62-4003-A47E-40819C1DB004}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D3360CA3-1BF1-4757-9B36-9B1E826DE2FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F86AC3C5-B314-4EA1-8142-0BAFCEC9A278}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3267777A-C130-4F86-B279-74940A1B2616}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{42887DC0-7F67-4184-954A-DBAB65851C73}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{50EBB45A-D85E-4EC6-82A4-FFA5285A9A79}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A076011B-23F3-4642-9C58-911FA715271F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{952A55B2-F38A-4A4F-91FE-D7DCA29984BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{45686A85-4E07-4BBB-9C1F-3EE9F06E30D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7BD13220-49F0-4D6F-BE0E-C4F18F5EC866}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8D49E60E-0E30-45FA-8ADD-DA16C20ABB82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{937567B5-39F3-49A8-9F12-16605BB599FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8562,7 +8562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB7DFA-D8C1-4364-B014-9F2C0C2F48AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71499604-7551-462D-96DB-12A11273A75C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9777,18 +9777,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{93B4DB4D-A086-4DFD-A55B-36800216D835}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D493E73C-58BE-4F7D-B96F-3A046F5C5BB7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{905A273E-0E9E-48B5-9DB8-664EECA6B472}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{05B73D68-37E9-44CD-AC51-79DD211D4B53}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2AF7E1AA-9D18-4184-9337-59D9CBAF24FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C9558CBC-96F0-4505-8FE0-1A271FDA7C30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EF878B63-23CA-4E2E-82A3-10DA8189C354}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D80D340-31DC-421E-82B2-42273CC1C445}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{424670E0-4B9A-4C7B-BF2D-B80A78A32D5F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4066B437-B76C-45EA-AFE9-C8040B61E3FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{06E41385-EF77-4032-9599-44F34FC2E113}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{453004AE-FBB9-49B6-A0AC-98C10CA4C264}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5B2C4413-B6AB-4C28-B841-3A8D7456C701}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{57545D13-9789-4230-85C5-E272E1B027F1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9FEB80EE-827A-4575-ACE7-9A9E8853A6DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3FD32179-D8BD-4D32-8850-CD26D7C034E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AA0C404E-7563-4429-8D90-78A6110E13D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FD907661-33BE-453B-877F-79774E6AE9BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AD35D99E-D636-4169-A083-9E35B68C6DB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6F66D03F-4C18-45EA-9A58-8A34AEBE1EBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0D92FC66-0338-48CD-9C86-9A47B052CBD3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6A77284B-81E6-4B0D-BE08-F73303D6348A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8F339AE-BE3E-4840-B94A-007F23DF73DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5AD22268-8930-4FB8-9942-F5E8938ABF0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9801,7 +9801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47954C-4DE0-4930-93E6-8D66529CE924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D80A0C-6A3F-4BD0-B3E2-B10FE1DD9813}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11010,18 +11010,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7F351B38-6CC6-41CF-93D7-8795F2EB8A6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1F7C54F4-20EF-428E-AE2B-62561B17351E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7A845105-25D0-411F-A2AA-0B7407E0F27E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F49745F7-6C20-456F-AFD3-90D801D89339}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AE96FB92-1D59-4FCD-88F4-72ED7F9E90DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5698116E-D1C3-4989-BC4F-187AB1E30E6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CBBFC46E-938C-4F78-BC05-F6FEEF1F5773}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{279D4171-427C-4ED1-98FA-20BDAB7B5613}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{247BB72D-0CE0-4A2C-A9CF-72502EAEA0D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A2CDC74E-B872-4961-B72C-6DA38E457A0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A6F7F4A2-5B4E-453A-8FBB-9BF72DD7D731}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{074BAD71-B05A-4258-9A31-E61BB16F492A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2A5CC664-4B8A-4E04-AB6E-37822F7E2D3E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{10F91E46-8B83-466C-8B7A-2CB9D425878A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B65FC969-042D-4D30-BD8B-283EBCCA7862}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E7277C39-5E09-483D-9713-DEE75D0E806A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A5E5DA1-1CFB-46FE-82FB-482B8CA413D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{47892201-8EC4-42D1-8181-B0E4EF6046B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5412018-83A0-4E42-8DB5-5DE4A4BC0809}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74CFD32B-F22B-4E94-94DA-5DB5D0CE2870}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{330C96B4-D3BB-4005-998F-8A0226E3C15F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{382A80B7-B8E9-4F6A-B8C3-F84306440FC7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{09519AE8-ABB1-492A-87D8-1BB58AD32AC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8AA6F84B-7BD8-4D8D-9F7B-C7A1472C3638}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11034,7 +11034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38E47EC-9A54-4A71-BBE4-A634C3393B6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9571D5D-C7AB-4520-B274-4D8166B22C4B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12243,18 +12243,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1B8B9F3F-2C00-4F9E-B32C-78E75830D9EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9065D6B2-3ADE-420D-8F8F-2FB33D26A333}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{021912D1-3E1C-4D9E-A9A4-3A893DAB87CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AB05BA5D-C7E9-46C5-AE5B-497982CFECFD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B371664A-5B46-4DEB-B53F-F97F9A76EDCC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A5A303D-1699-47F3-99F8-9E0D1D8B6189}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E90134C8-3896-432A-A492-DF300478B565}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7C7C1FB1-3D3D-4054-BEEF-40868D791FE7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F97D382-130A-47C4-A444-0E09CB7869D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C0B2CB9F-2221-4AA4-B679-78B514745EAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5745F287-C615-4858-A57E-D26A2D26F5B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C371C43-F092-482D-9063-93AB24F09A92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A8B013B2-1AA6-49FC-B33F-238E42E27487}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C6CCCF0B-AFD6-476A-8210-DF8DEFFD5FFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{938EAC01-0EC2-413A-95DB-05DA0C2817D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0357B2A1-C441-4CF5-8C3F-0A461E1623CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3CED72E2-F48F-44B9-8115-0EE635B0318B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AFD0384F-349E-43F3-B68A-A172FA20DAEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A7DC2A1-0B05-46BA-A2EE-1014D0F58DE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4EC80551-6220-4B1E-A031-857F609F92C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1066C02A-C623-43BD-A6AC-94AEE1079C39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8A055C2D-3A62-4BD4-BA97-76EBBBE4B7A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2273AF32-EEA4-4B6F-A6FC-9623E3C77837}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{81D22D87-6A5D-4076-BAF7-81E29A9CD454}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12267,7 +12267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D51608-1E4F-4A1A-80C6-91AC8D8C1BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B197FA4-F05B-4AA8-8338-4EDE30F8FC49}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13476,18 +13476,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8F286FB9-C074-430E-AA40-4AF5AC36B7CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C77F5F51-B7EE-490F-A34C-2D9267864F76}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0E6AC9E6-BF2F-450B-9234-FD247AA7C94D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6CBE5C7A-6BC8-4D79-B299-3417677B9129}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7F0FF12E-11DB-4536-BA4C-2BF63A25BFCA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{681D6E36-D13D-4BFA-B633-95B4E87913A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93669390-B29C-442F-A19A-7424581A281B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDF0E01D-CA82-4D7A-919A-607A76794686}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{481F7420-02C4-4D75-BCF8-F487ED967553}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C501D9F8-012C-4F0A-9DD8-C517A8E974F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BDBAD80F-DC1D-4C6C-87F8-5CDF7FE0B77F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE133D08-329E-40AE-9D2C-10CD59DB5B18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E35E28BB-E8FE-4EE7-9F25-D9779A56149B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E5F3D75-63F9-425E-B1F0-3AAB140C8A8A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{339171F1-E17E-4A1A-BC7B-C40F61FB40A7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E17E8F3D-D80D-4897-B38B-50EDAEA883E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{995867E1-0E95-405F-95C6-95688FF7C716}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7E7891F9-8F3F-4122-A079-8B95E86E3EC0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A5CD3C60-4691-4545-9420-D9D6FB4DAF9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8F17B97E-4152-4548-81D4-77806244D860}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{20E2AB9B-A4A4-4A83-89FB-7AA003F4DF58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99F963CB-EAEF-4DB1-AA13-8B3A6E56C358}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D5226B21-F5D1-447E-8879-47E2D027B2A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C223C337-DBEA-4A10-A1F5-AE8AE7F4040D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13500,7 +13500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B837E8-3A35-4FF9-A00F-4DE7CF7E9868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99E14CD-268E-4957-B36B-974BBBB77591}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14709,18 +14709,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1DC0DBA5-50C3-419F-B1B1-C48CF7983514}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{01F7CF5B-5133-477B-9442-0D33F8E78570}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CECB7D59-82DC-4BF8-A804-0343C3EE5D1A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EFB69F0F-9C24-4C7C-A6F6-4A2BCBE1D4F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{70B99241-4572-42D9-96C3-F6FFB175B482}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28C1B6A3-3BB2-4258-A3D6-F503269DA5EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BC225375-12C6-4EC0-89EF-C36DAC6EEC71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BE502778-189E-4CCD-9395-04043F9FB9A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A76A4F7-7C92-4069-AFB6-C52169BCABBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D02DBC8-AF64-49B4-AC34-031778BA7039}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D2E92D21-7030-4366-969E-73D92AC87127}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE041BAB-ED6B-4EC4-B6E8-EDBC423BF1C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{92DB0E58-8DD7-4886-97F6-467CB893E270}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{50D56A28-5112-4A35-B594-B31DA9A0677A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6BB846D0-DB8F-49CF-8F67-F942B7DE6195}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6F5519DD-9DE1-4EA2-A0EC-1B769BF4CAC5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B3958636-0D70-4D73-8575-C6DBBCA03A60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5C6C5EFF-CB44-45D9-8627-755BD80DC7F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D8E46E0-AE10-44BD-8DAF-F1614A2A2CBB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{870EAFE8-504E-4D29-98A9-C8885CBDCB7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E8C28AF6-04A0-4560-817B-04C0C3D592FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AFA03910-1C2A-484B-B9EA-04A337D978CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BBC89DD0-144A-430F-914E-862DB6D79E71}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D3F4570A-29B7-4EF4-8D65-0FC48E28E821}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14733,7 +14733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BEDFBC-BC34-4A93-BF2E-BA0A45669F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5295C44-9AEF-4D19-9D7E-82F8B2D4B20E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15942,18 +15942,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A7D0C670-DF00-4590-8B1C-F1E0568D13C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{63658E5B-4E8B-4ADC-B01A-21F640056A29}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4D0582A0-F137-4003-8786-CEAB5FAF2601}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{17BD7F59-2F77-46BA-AFB2-84B032D930F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B3171AF4-56BC-43A5-AC04-6E250B52AE49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04BA6930-E736-4401-98F5-4EE563A7825C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{028EBC70-7640-403E-AD2F-E9AE006678D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FFB1C8DF-F74C-4A58-854C-B239C7DCB271}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4CE54F4A-6BEC-4EB0-BAEF-2E2F9743B89E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88DBE551-0E6D-4D76-845C-5A66D1AA0608}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B75A727A-0F9B-430C-8361-E3B7D352FCF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15A3BF89-3AC8-45CD-8FCB-45CC62468D79}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{474C184F-9206-46D3-B8F8-218331EEC06C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AAC66320-4A58-4585-9FE8-658CE77F5E0D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DA636915-4FBB-4913-832F-071A3A9C571D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8F37CB16-6A32-460F-8DA4-86B1EE71FAF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AE12A366-0290-451F-8542-1330378ED75E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{24B469A2-969B-433A-AE5D-185D09C1DE94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9922FFCE-FFCD-4CCD-BEF1-A5A3F94D9FB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2EBFE9DF-9A15-4F2F-9292-051F08C97E02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A96ACA03-7AD0-464F-9A46-367BFAC4A19D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A8CC42E2-5F1C-489B-A798-85D166EF4461}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6CE1CFD2-6018-4D42-9C2E-355334F9111B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3E1311F8-06B2-41B9-8782-20BF124E3A82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
